--- a/src/imputation/data.xlsx
+++ b/src/imputation/data.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,39 +367,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>9</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
